--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\b2b_back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750ABC12-BA1E-4FBB-B018-7950A1093D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5231A7-C645-41D4-A4FF-D8A95C323A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="690" windowWidth="12810" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>Rodriguez hernandez</t>
   </si>
   <si>
-    <t xml:space="preserve">Motoraton2670@gmail.com.  </t>
-  </si>
-  <si>
     <t>+ 57 ) 311 8489761.</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>Ramirez Ventura</t>
   </si>
   <si>
-    <t xml:space="preserve"> kary0281@gmail.com</t>
-  </si>
-  <si>
     <t># 503 76174069</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>Siabato Agudelo</t>
   </si>
   <si>
-    <t xml:space="preserve"> angelasiabato185@gmail.com</t>
-  </si>
-  <si>
     <t>+ 57 3218151616</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>Lesmes Barahona</t>
   </si>
   <si>
-    <t xml:space="preserve"> oswaldo.lesmes1173@gmail.com</t>
-  </si>
-  <si>
     <t>+57 3229482251</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
     <t>Salazar canelones</t>
   </si>
   <si>
-    <t>maria190422@gmail.com.</t>
-  </si>
-  <si>
     <t>+58 04245398685</t>
   </si>
   <si>
@@ -501,9 +486,6 @@
     <t>Arévalo Peñaloza</t>
   </si>
   <si>
-    <t xml:space="preserve"> indira.arevalop@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 57 3017878533 </t>
   </si>
   <si>
@@ -525,9 +507,6 @@
     <t>PINILLA PATIÑO</t>
   </si>
   <si>
-    <t xml:space="preserve"> nfaparedes@hotmail.com</t>
-  </si>
-  <si>
     <t>+57 3178036359</t>
   </si>
   <si>
@@ -559,9 +538,6 @@
   </si>
   <si>
     <t>DÍAZ VALBUENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ginnadiaz.2000@gmail.com</t>
   </si>
   <si>
     <t>+57 3228834819</t>
@@ -642,20 +618,44 @@
     <t>United States</t>
   </si>
   <si>
-    <t>lUnited Statesrrias2@gmail.com</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
     <t>Claudia Karina</t>
+  </si>
+  <si>
+    <t>oswaldo.lesmes1173@gmail.com</t>
+  </si>
+  <si>
+    <t>angelasiabato185@gmail.com</t>
+  </si>
+  <si>
+    <t>indira.arevalop@gmail.com</t>
+  </si>
+  <si>
+    <t>nfaparedes@hotmail.com</t>
+  </si>
+  <si>
+    <t>ginnadiaz.2000@gmail.com</t>
+  </si>
+  <si>
+    <t>maria190422@gmail.com</t>
+  </si>
+  <si>
+    <t>lusarrias2@gmail.com</t>
+  </si>
+  <si>
+    <t>kary0281@gmail.com</t>
+  </si>
+  <si>
+    <t>Motoraton2670@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,6 +696,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,7 +733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -729,6 +743,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1047,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,19 +1078,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,14 +1100,14 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,7 +1158,7 @@
         <v>12088726783</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,7 +1209,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1260,7 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,660 +1270,660 @@
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>198</v>
+      <c r="E24" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" t="s">
-        <v>196</v>
+      <c r="E35" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D41">
         <v>34626120764</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D48">
         <v>17188135590</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1941,7 @@
     <hyperlink ref="C39" r:id="rId11" xr:uid="{B6D6F776-6E59-4F82-9663-A3BCA36226BA}"/>
     <hyperlink ref="C37" r:id="rId12" xr:uid="{7AEA5A7D-1FA4-4920-B8C2-27A78CC2705F}"/>
     <hyperlink ref="C36" r:id="rId13" xr:uid="{2F73AE18-42D9-4D54-ACD1-5A56A9AD1B88}"/>
-    <hyperlink ref="C35" r:id="rId14" display="lusarrias2@gmail.com" xr:uid="{66E84CA6-CC4A-4C4D-B46E-C442B59DAA2B}"/>
+    <hyperlink ref="C35" r:id="rId14" xr:uid="{66E84CA6-CC4A-4C4D-B46E-C442B59DAA2B}"/>
     <hyperlink ref="C34" r:id="rId15" xr:uid="{A4F38428-3BFF-4D7E-83D7-7637FE09F5F2}"/>
     <hyperlink ref="C33" r:id="rId16" xr:uid="{EF9B710A-5E1E-442F-AB65-5AA9F1878B8A}"/>
     <hyperlink ref="C32" r:id="rId17" xr:uid="{3180B68F-ABC8-42E2-89A6-18017C77227F}"/>
@@ -1954,8 +1970,15 @@
     <hyperlink ref="C6" r:id="rId40" xr:uid="{FA1233E5-2A74-4047-A028-7B7C67E099A5}"/>
     <hyperlink ref="C5" r:id="rId41" xr:uid="{2DCFC15E-AD6E-4F4E-9374-63F8937CF446}"/>
     <hyperlink ref="C4" r:id="rId42" xr:uid="{2B032ABC-5E2E-414B-8BF2-50A08A7F3362}"/>
+    <hyperlink ref="C22" r:id="rId43" xr:uid="{95653BCD-3A59-4E12-B0FE-2B38D4977F25}"/>
+    <hyperlink ref="C21" r:id="rId44" xr:uid="{3220CC88-0CAE-45C0-A771-11DE13182D97}"/>
+    <hyperlink ref="C42" r:id="rId45" xr:uid="{88FCCB17-692B-4F66-8593-97F8AE19EF41}"/>
+    <hyperlink ref="C44" r:id="rId46" xr:uid="{3DCC5BDC-0066-475B-AB49-B93F8341656F}"/>
+    <hyperlink ref="C47" r:id="rId47" xr:uid="{E82C73AB-EE87-4ADA-8FA2-FB4EF6040561}"/>
+    <hyperlink ref="C2" r:id="rId48" xr:uid="{0F476327-098E-41A9-A443-6FB11FF7343F}"/>
+    <hyperlink ref="C16" r:id="rId49" xr:uid="{9242E085-AC6C-4947-BE95-708D108543E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>